--- a/Sprint_3/UAT .xlsx
+++ b/Sprint_3/UAT .xlsx
@@ -284,6 +284,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -485,7 +489,7 @@
   <dimension ref="A1:F971"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
